--- a/Table of Contents.xlsx
+++ b/Table of Contents.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="165">
   <si>
     <t>Type</t>
   </si>
@@ -374,9 +373,6 @@
     <t>JavaMulticlassLogisticRegressionWithElasticNetExample</t>
   </si>
   <si>
-    <t>Implementation of ML Regression.</t>
-  </si>
-  <si>
     <t>An example demonstrating model selection using TrainValidationSplit.</t>
   </si>
   <si>
@@ -395,6 +391,173 @@
   </si>
   <si>
     <t>JavaMinMaxScalerExample</t>
+  </si>
+  <si>
+    <t>JavaMinHashLSHExample</t>
+  </si>
+  <si>
+    <t>An example demonstrating Minimal Locally Sensative Hashing.</t>
+  </si>
+  <si>
+    <t>JavaMaxAbsScalerExample</t>
+  </si>
+  <si>
+    <t>MaxAbsScaler transforms a dataset of Vector rows, rescaling each feature to range [-1, 1] by dividing 
+through the maximum absolute value in each feature. It does not shift/center the data, and thus does not
+destroy any sparsity.</t>
+  </si>
+  <si>
+    <t>JavaLogisticRegressionWithElasticNetExample</t>
+  </si>
+  <si>
+    <t>Implementation of Logistic Regression with Elastic net.</t>
+  </si>
+  <si>
+    <t>JavaLogisticRegressionSummaryExample</t>
+  </si>
+  <si>
+    <t>Implementation of Logistic Regression.</t>
+  </si>
+  <si>
+    <t>JavaLinearSVCExample</t>
+  </si>
+  <si>
+    <t>Implementation of Linear Support Vector Classification</t>
+  </si>
+  <si>
+    <t>Implementation of Multiclass Logistic Regression.</t>
+  </si>
+  <si>
+    <t>JavaLinearRegressionWithElasticNetExample</t>
+  </si>
+  <si>
+    <t>Implementation of Linear Logistic Regression.</t>
+  </si>
+  <si>
+    <t>JavaLDAExample</t>
+  </si>
+  <si>
+    <t>Implementation of Linear Discriminant Analysis</t>
+  </si>
+  <si>
+    <t>JavaKMeansExample</t>
+  </si>
+  <si>
+    <t>An example demonstrating k-means clustering.</t>
+  </si>
+  <si>
+    <t>JavaIsotonicRegressionExample</t>
+  </si>
+  <si>
+    <t>An example demonstrating Isotonic Regression.</t>
+  </si>
+  <si>
+    <t>JavaInteractionExample</t>
+  </si>
+  <si>
+    <t>Interaction is a Transformer which takes vector or double-valued columns, and generates a single vector 
+column that contains the product of all combinations of one value from each input column.</t>
+  </si>
+  <si>
+    <t>JavaIndexToStringExample</t>
+  </si>
+  <si>
+    <t>IndexToString maps a column of label indices back to a column containing the original labels as strings0.
+ A common use case is to produce indices from labels with StringIndexer, train a model with those indices
+ and retrieve the original labels from the column of predicted indices with IndexToString.</t>
+  </si>
+  <si>
+    <t>JavaImputerExample</t>
+  </si>
+  <si>
+    <t>An example demonstrating Imputer.</t>
+  </si>
+  <si>
+    <t>JavaGradientBoostedTreeRegressorExample</t>
+  </si>
+  <si>
+    <t>Gradient boosting is a machine learning technique for regression and classification problems, which 
+produces a prediction model in the form of an ensemble of weak prediction models, typically decision 
+trees. Implementation of BT.</t>
+  </si>
+  <si>
+    <t>JavaGradientBoostedTreeClassifierExample</t>
+  </si>
+  <si>
+    <t>Implementation of Boosted Tree Classifier.</t>
+  </si>
+  <si>
+    <t>An example demonstrating generalized linear regression.</t>
+  </si>
+  <si>
+    <t>JavaGeneralizedLinearRegressionExample</t>
+  </si>
+  <si>
+    <t>An example demonstrating Gaussian Mixture Model.</t>
+  </si>
+  <si>
+    <t>JavaGaussianMixtureExample</t>
+  </si>
+  <si>
+    <t>JavaFPGrowthExample</t>
+  </si>
+  <si>
+    <t>An example demonstrating FPGrowth.</t>
+  </si>
+  <si>
+    <t>JavaEstimatorTransformerParamExample</t>
+  </si>
+  <si>
+    <t>Java example for Estimator, Transformer, and Param.</t>
+  </si>
+  <si>
+    <t>JavaElementwiseProductExample</t>
+  </si>
+  <si>
+    <t>ElementwiseProduct multiplies each input vector by a provided “weight” vector, using element-wise 
+multiplication. In other words, it scales each column of the dataset by a scalar multiplier. This represents 
+the Hadamard product between the input vector, v and transforming vector, w, to yield a result vector.</t>
+  </si>
+  <si>
+    <t>JavaDecisionTreeRegressionExample</t>
+  </si>
+  <si>
+    <t>An example of Decision Tree Regression.</t>
+  </si>
+  <si>
+    <t>JavaDecisionTreeClassificationExample</t>
+  </si>
+  <si>
+    <t>An example of Decision Tree Classification.</t>
+  </si>
+  <si>
+    <t>JavaDCTExample</t>
+  </si>
+  <si>
+    <t>The Discrete Cosine Transform transforms a length NN real-valued sequence in the time domain into 
+another length NN real-valued sequence in the frequency domain.</t>
+  </si>
+  <si>
+    <t>JavaCountVectorizerExample</t>
+  </si>
+  <si>
+    <t>CountVectorizer and CountVectorizerModel aim to help convert a collection of text documents to vectors 
+of token counts. When an a-priori dictionary is not available, CountVectorizer can be used as an Estimator 
+to extract the vocabulary, and generates a CountVectorizerModel. The model produces sparse 
+representations for the documents over the vocabulary, which can then be passed to other algorithms 
+like LDA.</t>
+  </si>
+  <si>
+    <t>JavaCorrelationExample</t>
+  </si>
+  <si>
+    <t>An example for computing correlation matrix.</t>
+  </si>
+  <si>
+    <t>JavaChiSquareTestExample</t>
+  </si>
+  <si>
+    <t>An example for Chi-square hypothesis testing.</t>
   </si>
 </sst>
 </file>
@@ -780,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,31 +1562,231 @@
         <v>107</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="1" t="s">
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>113</v>
+      <c r="C54" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
